--- a/CMS_fingerprint_identification/Fingerprint_database/banner.xlsx
+++ b/CMS_fingerprint_identification/Fingerprint_database/banner.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="fofa" sheetId="1" state="visible" r:id="rId1"/>
@@ -415,18 +415,18 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2119"/>
+  <dimension ref="A1:B2118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A2105" workbookViewId="0">
+      <selection activeCell="F2113" sqref="F2113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="12.109375" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col width="28.44140625" customWidth="1" style="1" min="1" max="1"/>
     <col width="69.33203125" customWidth="1" style="1" min="2" max="2"/>
-    <col width="12.109375" customWidth="1" style="1" min="3" max="3"/>
-    <col width="12.109375" customWidth="1" style="1" min="4" max="16384"/>
+    <col width="12.109375" customWidth="1" style="1" min="3" max="4"/>
+    <col width="12.109375" customWidth="1" style="1" min="5" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="21" customHeight="1" s="4">
@@ -25842,18 +25842,6 @@
       <c r="B2118" s="3" t="inlineStr">
         <is>
           <t>body="content="AWStats" || body="Created by awstats"</t>
-        </is>
-      </c>
-    </row>
-    <row r="2119">
-      <c r="A2119" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="B2119" t="inlineStr">
-        <is>
-          <t>Key</t>
         </is>
       </c>
     </row>
